--- a/plan/test/結合テスト/結合テスト仕様書-BP002ログイン画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP002ログイン画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4A4413-B8FF-40A6-99DA-5BCBC4B54B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2082E502-3776-46F4-A97E-DB0EAA254A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>作成者</t>
   </si>
@@ -445,6 +445,32 @@
     </rPh>
     <rPh sb="23" eb="24">
       <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セキュリティ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sqlインジェクション UNION SELECT id,password,name FROM admin - -</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xss &lt;script&gt; alert()&lt;/script&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>javascriptが実行されない</t>
+    <rPh sb="11" eb="13">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sqlインジェクションが発生しない</t>
+    <rPh sb="12" eb="14">
+      <t>ハッセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -793,6 +819,96 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -802,21 +918,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -824,81 +925,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1253,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1271,25 +1297,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1304,23 +1330,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="49" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="34"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1333,48 +1359,48 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="42"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="42"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1383,20 +1409,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="34" t="s">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1406,16 +1432,16 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="34" t="s">
+      <c r="P5" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="36"/>
+      <c r="Q5" s="45"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="19" t="s">
@@ -1442,7 +1468,7 @@
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="19" t="s">
         <v>17</v>
       </c>
@@ -1468,93 +1494,93 @@
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="23" t="s">
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="41"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="27"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="43"/>
     </row>
     <row r="9" spans="1:17" ht="11">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="41"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="27"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="43"/>
     </row>
     <row r="10" spans="1:17" ht="11">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="23" t="s">
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="41"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="27"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="43"/>
     </row>
     <row r="11" spans="1:17" ht="11">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23" t="s">
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="41"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1592,7 +1618,7 @@
       <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="18" t="s">
@@ -1619,7 +1645,7 @@
       <c r="A14" s="6">
         <v>9</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="18" t="s">
         <v>39</v>
       </c>
@@ -1644,7 +1670,7 @@
       <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="B15" s="38"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="18" t="s">
         <v>40</v>
       </c>
@@ -1669,7 +1695,7 @@
       <c r="A16" s="6">
         <v>11</v>
       </c>
-      <c r="B16" s="38"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="18" t="s">
         <v>41</v>
       </c>
@@ -1694,7 +1720,7 @@
       <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="18" t="s">
         <v>42</v>
       </c>
@@ -1719,7 +1745,7 @@
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="38"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="18" t="s">
         <v>48</v>
       </c>
@@ -1744,7 +1770,7 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="18" t="s">
         <v>49</v>
       </c>
@@ -1769,7 +1795,7 @@
       <c r="A20" s="6">
         <v>13</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="18" t="s">
         <v>46</v>
       </c>
@@ -1794,7 +1820,7 @@
       <c r="A21" s="6">
         <v>14</v>
       </c>
-      <c r="B21" s="55"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="18" t="s">
         <v>50</v>
       </c>
@@ -1815,13 +1841,57 @@
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
     </row>
-    <row r="22" spans="1:17" ht="11.25" customHeight="1">
-      <c r="B22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:17" ht="11.25" customHeight="1">
-      <c r="B23" s="4"/>
-      <c r="G23" s="4"/>
+    <row r="22" spans="1:17" ht="27" customHeight="1">
+      <c r="A22" s="6">
+        <v>14</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+    </row>
+    <row r="23" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A23" s="6">
+        <v>14</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
     </row>
     <row r="24" spans="1:17" ht="11.25" customHeight="1">
       <c r="B24" s="4"/>
@@ -1836,27 +1906,34 @@
       <c r="G26" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+  <mergeCells count="67">
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C9:G10"/>
+    <mergeCell ref="C11:G11"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -1873,30 +1950,30 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:L15"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C9:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:L11"/>
     <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="P16:Q16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP002ログイン画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP002ログイン画面.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2082E502-3776-46F4-A97E-DB0EAA254A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D1EFA1-FFEE-4940-BA68-B3B13F50339F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>作成者</t>
   </si>
@@ -202,20 +202,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>FS</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>未ログイン状態</t>
-    <rPh sb="0" eb="1">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>body</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -224,47 +210,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「文具/雑貨販売システム」と表示されている</t>
-    <rPh sb="1" eb="3">
-      <t>ブング</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ザッカ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ハンバイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「ログイン」リンクが表示されている</t>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「ログイン」を押下</t>
-    <rPh sb="7" eb="9">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>footer</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「Fullness Stationery社」と表示されている</t>
-    <rPh sb="20" eb="21">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -276,9 +222,6 @@
   </si>
   <si>
     <t>「ログイン」と表示されている</t>
-  </si>
-  <si>
-    <t>「ログイン」と表示されている</t>
     <rPh sb="0" eb="1">
       <t>ショセキ</t>
     </rPh>
@@ -471,6 +414,92 @@
     <t>sqlインジェクションが発生しない</t>
     <rPh sb="12" eb="14">
       <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本証券テクノロジー</t>
+    <rPh sb="0" eb="4">
+      <t>ニホンショウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・画面表示項目、入力内容におけるシステムの挙動、画面遷移について確認する。
+・数値の範囲を確認する場合には同値分割や境界値分析の手法を用いる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン画面」と表示されている</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・未ログイン状態</t>
+    <rPh sb="1" eb="2">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン」リンクを押下</t>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン」ボタンを押下</t>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面へ遷移すること</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「文具/雑貨販売システム」と表示されていること</t>
+    <rPh sb="1" eb="3">
+      <t>ブング</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ザッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン」リンクが表示されていること</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「Fullness Stationery社」と表示されていること</t>
+    <rPh sb="20" eb="21">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -760,7 +789,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -814,10 +843,64 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -825,106 +908,55 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1277,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B17" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1297,25 +1329,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1326,27 +1358,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="29" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="34"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1359,48 +1391,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38"/>
-    </row>
-    <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="56"/>
+    </row>
+    <row r="4" spans="1:17" ht="27.5" customHeight="1">
+      <c r="A4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="38"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="56"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1409,20 +1443,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="44" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1432,470 +1466,489 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="44" t="s">
+      <c r="P5" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="45"/>
+      <c r="Q5" s="37"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="41"/>
+      <c r="C8" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="43"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="1:17" ht="11">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="41"/>
+      <c r="C9" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="43"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="24"/>
     </row>
     <row r="10" spans="1:17" ht="11">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="41"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="43"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="24"/>
     </row>
     <row r="11" spans="1:17" ht="11">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="41"/>
+      <c r="C11" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
     </row>
-    <row r="12" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A12" s="6">
-        <v>7</v>
-      </c>
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="1:17" ht="13" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="17"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" customHeight="1">
       <c r="A13" s="6">
-        <v>8</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
     </row>
     <row r="14" spans="1:17" ht="13.5" customHeight="1">
       <c r="A14" s="6">
-        <v>9</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
     </row>
     <row r="15" spans="1:17" ht="13.5" customHeight="1">
       <c r="A15" s="6">
-        <v>10</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
     </row>
     <row r="16" spans="1:17" ht="13.5" customHeight="1">
       <c r="A16" s="6">
-        <v>11</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
     </row>
     <row r="17" spans="1:17" ht="13.5" customHeight="1">
       <c r="A17" s="6">
-        <v>12</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
     </row>
     <row r="18" spans="1:17" ht="13.5" customHeight="1">
       <c r="A18" s="6">
-        <v>13</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1">
       <c r="A19" s="6">
-        <v>14</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
-        <v>13</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
-        <v>14</v>
-      </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
+        <v>13</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-    </row>
-    <row r="22" spans="1:17" ht="27" customHeight="1">
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+    </row>
+    <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>14</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-    </row>
-    <row r="23" spans="1:17" ht="13.5" customHeight="1">
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+    </row>
+    <row r="23" spans="1:17" ht="27" customHeight="1">
       <c r="A23" s="6">
         <v>14</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
+      <c r="B23" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-    </row>
-    <row r="24" spans="1:17" ht="11.25" customHeight="1">
-      <c r="B24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+    </row>
+    <row r="24" spans="1:17" ht="13.5" customHeight="1">
+      <c r="A24" s="6">
+        <v>14</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="B25" s="4"/>
@@ -1905,35 +1958,36 @@
       <c r="B26" s="4"/>
       <c r="G26" s="4"/>
     </row>
+    <row r="27" spans="1:17" ht="11.25" customHeight="1">
+      <c r="B27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="B22:B23"/>
+  <mergeCells count="70">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C21:G21"/>
     <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
     <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C9:G10"/>
-    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -1950,30 +2004,36 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C9:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP002ログイン画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP002ログイン画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D1EFA1-FFEE-4940-BA68-B3B13F50339F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0EFC29-1D7C-4039-9BD6-C8024B848BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>作成者</t>
   </si>
@@ -330,28 +330,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「アカウント名は5文字以上20文字以内で入力して下さい」</t>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>モジイジョウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イナイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>クダ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アカウント名：012345678901234567890, パスワード：admin</t>
     <rPh sb="5" eb="6">
       <t>メイ</t>
@@ -369,25 +347,6 @@
     <t>アカウント名：admin, パスワード：admi</t>
     <rPh sb="5" eb="6">
       <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「パスワードは5文字以上20文字以内で入力して下さい」</t>
-    <rPh sb="8" eb="12">
-      <t>モジイジョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>イナイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>クダ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -848,6 +807,66 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -863,6 +882,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -888,75 +916,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1311,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B17" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:L14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B14" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1329,25 +1288,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="43" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1358,27 +1317,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="47" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="34"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1391,50 +1350,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="56"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="1:17" ht="27.5" customHeight="1">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="56"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="39"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1443,20 +1402,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="36" t="s">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1466,16 +1425,16 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="37"/>
+      <c r="Q5" s="46"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -1486,7 +1445,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
@@ -1502,7 +1461,7 @@
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="18" t="s">
         <v>17</v>
       </c>
@@ -1528,93 +1487,93 @@
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="20" t="s">
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="24"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
     </row>
     <row r="9" spans="1:17" ht="11">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="42"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="24"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
     </row>
     <row r="10" spans="1:17" ht="11">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="24"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="44"/>
     </row>
     <row r="11" spans="1:17" ht="11">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1627,7 +1586,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -1652,14 +1611,14 @@
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
@@ -1675,7 +1634,7 @@
       <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -1702,7 +1661,7 @@
       <c r="A15" s="6">
         <v>9</v>
       </c>
-      <c r="B15" s="39"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="19" t="s">
         <v>32</v>
       </c>
@@ -1727,7 +1686,7 @@
       <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="39"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="19" t="s">
         <v>33</v>
       </c>
@@ -1752,7 +1711,7 @@
       <c r="A17" s="6">
         <v>11</v>
       </c>
-      <c r="B17" s="39"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="19" t="s">
         <v>34</v>
       </c>
@@ -1777,7 +1736,7 @@
       <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="B18" s="39"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="19" t="s">
         <v>35</v>
       </c>
@@ -1802,16 +1761,16 @@
       <c r="A19" s="6">
         <v>13</v>
       </c>
-      <c r="B19" s="39"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -1827,16 +1786,16 @@
       <c r="A20" s="6">
         <v>14</v>
       </c>
-      <c r="B20" s="39"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
@@ -1852,7 +1811,7 @@
       <c r="A21" s="6">
         <v>13</v>
       </c>
-      <c r="B21" s="39"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="19" t="s">
         <v>39</v>
       </c>
@@ -1861,7 +1820,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
@@ -1877,16 +1836,16 @@
       <c r="A22" s="6">
         <v>14</v>
       </c>
-      <c r="B22" s="53"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
@@ -1903,17 +1862,17 @@
         <v>14</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
@@ -1931,14 +1890,14 @@
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
@@ -1964,30 +1923,35 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C9:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:L12"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2004,36 +1968,31 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="C16:G16"/>
     <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C9:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP002ログイン画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP002ログイン画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0EFC29-1D7C-4039-9BD6-C8024B848BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3978698C-19B3-4994-B731-C45E0CF30855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>作成者</t>
   </si>
@@ -459,6 +459,17 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高良</t>
+    <rPh sb="0" eb="2">
+      <t>タカラ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -748,7 +759,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -768,155 +779,152 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1270,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B14" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="P9" sqref="P8:Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1288,25 +1296,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1321,593 +1329,649 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="29" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="9" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="9">
         <v>45496</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12"/>
+      <c r="Q2" s="11" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="38" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="39"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="36"/>
     </row>
     <row r="4" spans="1:17" ht="27.5" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="39"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="36"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="45" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="14" t="s">
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="45" t="s">
+      <c r="P5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="46"/>
+      <c r="Q5" s="38"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="55">
+        <v>45503</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="55">
+        <v>45503</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="48" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="40" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="44"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="55">
+        <v>45503</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="1:17" ht="11">
       <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="51" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="40" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="44"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="55">
+        <v>45503</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="22"/>
     </row>
     <row r="10" spans="1:17" ht="11">
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="40" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="44"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="55">
+        <v>45503</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="22"/>
     </row>
     <row r="11" spans="1:17" ht="11">
       <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="51" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="40" t="s">
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="55">
+        <v>45503</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="15"/>
     </row>
     <row r="12" spans="1:17" ht="13" customHeight="1">
       <c r="A12" s="6"/>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="17"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="55">
+        <v>45503</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="15"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" customHeight="1">
       <c r="A13" s="6">
         <v>7</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="55">
+        <v>45503</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
     </row>
     <row r="14" spans="1:17" ht="13.5" customHeight="1">
       <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="55">
+        <v>45503</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
     </row>
     <row r="15" spans="1:17" ht="13.5" customHeight="1">
       <c r="A15" s="6">
         <v>9</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
     </row>
     <row r="16" spans="1:17" ht="13.5" customHeight="1">
       <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="40"/>
+      <c r="C16" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
     </row>
     <row r="17" spans="1:17" ht="13.5" customHeight="1">
       <c r="A17" s="6">
         <v>11</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
     </row>
     <row r="18" spans="1:17" ht="13.5" customHeight="1">
       <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="40"/>
+      <c r="C18" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1">
       <c r="A19" s="6">
         <v>13</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="19" t="s">
+      <c r="B19" s="40"/>
+      <c r="C19" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
         <v>14</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="40"/>
+      <c r="C20" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>13</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="40"/>
+      <c r="C21" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>14</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="54"/>
+      <c r="C22" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18" t="s">
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
     </row>
     <row r="23" spans="1:17" ht="27" customHeight="1">
       <c r="A23" s="6">
         <v>14</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18" t="s">
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" customHeight="1">
       <c r="A24" s="6">
         <v>14</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18" t="s">
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="B25" s="4"/>
@@ -1923,33 +1987,32 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C9:G10"/>
-    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="A4:B4"/>
@@ -1966,33 +2029,34 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C9:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
     <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP002ログイン画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP002ログイン画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3978698C-19B3-4994-B731-C45E0CF30855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1A3F95-7187-4902-9A99-ABFD81D93A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
   <si>
     <t>作成者</t>
   </si>
@@ -313,16 +313,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「アカウント名またはパスワードが違います」</t>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>チガ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アカウント名：admin, パスワード：012345678901234567890</t>
     <rPh sb="5" eb="6">
       <t>メイ</t>
@@ -470,6 +460,46 @@
     <t>高良</t>
     <rPh sb="0" eb="2">
       <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アカウント名またはパスワードが正しくありません」</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント名：hanako パスワード：hanako</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録したユーザーのアカウント名とパスワードで「メニュー画面」に遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アカウント名またはパスワードが正しくありません」と表示される</t>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -806,12 +836,84 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -853,78 +955,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1276,10 +1306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P9" sqref="P8:Q9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22:Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1296,25 +1326,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1325,27 +1355,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="48" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="36"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1356,54 +1386,54 @@
         <v>5</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="36"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="41"/>
     </row>
     <row r="4" spans="1:17" ht="27.5" customHeight="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="36"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="41"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1412,20 +1442,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="37" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1435,224 +1465,224 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="38"/>
+      <c r="Q5" s="24"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="55">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="16">
         <v>45503</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
+        <v>57</v>
+      </c>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="55">
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="16">
         <v>45503</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
+        <v>57</v>
+      </c>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="18" t="s">
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="55">
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="16">
         <v>45503</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="22"/>
+        <v>57</v>
+      </c>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="46"/>
     </row>
     <row r="9" spans="1:17" ht="11">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="55">
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="16">
         <v>45503</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="22"/>
+        <v>57</v>
+      </c>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="46"/>
     </row>
     <row r="10" spans="1:17" ht="11">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="55">
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="16">
         <v>45503</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="22"/>
+        <v>57</v>
+      </c>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="46"/>
     </row>
     <row r="11" spans="1:17" ht="11">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="18" t="s">
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="16">
+        <v>45503</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="55">
-        <v>45503</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="P11" s="14"/>
       <c r="Q11" s="15"/>
     </row>
     <row r="12" spans="1:17" ht="13" customHeight="1">
       <c r="A12" s="6"/>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16" t="s">
+      <c r="C12" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="55">
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="16">
         <v>45503</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P12" s="14"/>
       <c r="Q12" s="15"/>
@@ -1661,321 +1691,404 @@
       <c r="A13" s="6">
         <v>7</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="55">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="16">
         <v>45503</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
+        <v>57</v>
+      </c>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
     <row r="14" spans="1:17" ht="13.5" customHeight="1">
       <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="55">
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="16">
         <v>45503</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
+        <v>57</v>
+      </c>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
     <row r="15" spans="1:17" ht="13.5" customHeight="1">
       <c r="A15" s="6">
         <v>9</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="2"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="16">
+        <v>45505</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="O15" s="2"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
     <row r="16" spans="1:17" ht="13.5" customHeight="1">
       <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="17" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16" t="s">
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="2"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="16">
+        <v>45505</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="O16" s="2"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" ht="13.5" customHeight="1">
       <c r="A17" s="6">
         <v>11</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="17" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="16">
+        <v>45505</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" ht="13.5" customHeight="1">
       <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="16">
+        <v>45505</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1">
       <c r="A19" s="6">
         <v>13</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="16">
+        <v>45505</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
         <v>14</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="16">
+        <v>45505</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
-        <v>13</v>
-      </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="16">
+        <v>45505</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
-        <v>14</v>
-      </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="16">
+        <v>45505</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+    </row>
+    <row r="23" spans="1:17" ht="29" customHeight="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="16">
+        <v>45505</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="46"/>
+    </row>
+    <row r="24" spans="1:17" ht="27" customHeight="1">
+      <c r="A24" s="6">
+        <v>17</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-    </row>
-    <row r="23" spans="1:17" ht="27" customHeight="1">
-      <c r="A23" s="6">
-        <v>14</v>
-      </c>
-      <c r="B23" s="16" t="s">
+      <c r="C24" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="16">
+        <v>45505</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P24" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q24" s="18"/>
+    </row>
+    <row r="25" spans="1:17" ht="29.5" customHeight="1">
+      <c r="A25" s="6">
+        <v>18</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-    </row>
-    <row r="24" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A24" s="6">
-        <v>14</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17" t="s">
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-    </row>
-    <row r="25" spans="1:17" ht="11.25" customHeight="1">
-      <c r="B25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="16">
+        <v>45505</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P25" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q25" s="18"/>
     </row>
     <row r="26" spans="1:17" ht="11.25" customHeight="1">
       <c r="B26" s="4"/>
@@ -1985,35 +2098,43 @@
       <c r="B27" s="4"/>
       <c r="G27" s="4"/>
     </row>
+    <row r="28" spans="1:17" ht="11.25" customHeight="1">
+      <c r="B28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C12:G12"/>
+  <mergeCells count="73">
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C9:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="P19:Q19"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
@@ -2030,33 +2151,32 @@
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C9:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP002ログイン画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP002ログイン画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1A3F95-7187-4902-9A99-ABFD81D93A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067BCF7A-4F9D-4E35-B9FC-4CBA303EC917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1308,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22:Q22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP002ログイン画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP002ログイン画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067BCF7A-4F9D-4E35-B9FC-4CBA303EC917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CA7B55-9F05-425C-82CE-E6E4AC7D546F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
   <si>
     <t>作成者</t>
   </si>
@@ -262,20 +262,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アカウント名：, パスワード：admin</t>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント名：admin, パスワード：</t>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アカウント名：admin1, パスワード：admin</t>
     <rPh sb="5" eb="6">
       <t>メイ</t>
@@ -286,29 +272,6 @@
     <t>アカウント名：admin, パスワード：admin1</t>
     <rPh sb="5" eb="6">
       <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「アカウント名は必須の入力項目です」</t>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>ニュウリョクコウモク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「パスワードは必須の入力項目です」</t>
-    <rPh sb="7" eb="9">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>ニュウリョクコウモク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -789,7 +752,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -840,10 +803,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -851,53 +814,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -914,20 +862,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -938,23 +877,53 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1308,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1326,25 +1295,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1355,27 +1324,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="31" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="36"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1386,54 +1355,54 @@
         <v>5</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="41"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="36"/>
     </row>
     <row r="4" spans="1:17" ht="27.5" customHeight="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="41"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="36"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1442,20 +1411,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="22" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1465,10 +1434,10 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="22" t="s">
+      <c r="P5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="24"/>
+      <c r="Q5" s="38"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
@@ -1477,212 +1446,212 @@
       <c r="B6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
       <c r="M6" s="16">
         <v>45503</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
+        <v>53</v>
+      </c>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="1:17" ht="11">
       <c r="A7" s="6">
         <v>2</v>
       </c>
       <c r="B7" s="20"/>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
       <c r="M7" s="16">
         <v>45503</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
+        <v>53</v>
+      </c>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="1:17" ht="11">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="42" t="s">
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="44"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="16">
         <v>45503</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="46"/>
+        <v>53</v>
+      </c>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="1:17" ht="11">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="44"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="16">
         <v>45503</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="46"/>
+        <v>53</v>
+      </c>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="22"/>
     </row>
     <row r="10" spans="1:17" ht="11">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="44"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="16">
         <v>45503</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="46"/>
+        <v>53</v>
+      </c>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="22"/>
     </row>
     <row r="11" spans="1:17" ht="11">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="44"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="16">
         <v>45503</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P11" s="14"/>
       <c r="Q11" s="15"/>
     </row>
     <row r="12" spans="1:17" ht="13" customHeight="1">
       <c r="A12" s="6"/>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17" t="s">
+      <c r="C12" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
       <c r="M12" s="16">
         <v>45503</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P12" s="14"/>
       <c r="Q12" s="15"/>
@@ -1691,262 +1660,266 @@
       <c r="A13" s="6">
         <v>7</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
       <c r="M13" s="16">
         <v>45503</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+        <v>53</v>
+      </c>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
     </row>
     <row r="14" spans="1:17" ht="13.5" customHeight="1">
       <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
       <c r="M14" s="16">
         <v>45503</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+        <v>53</v>
+      </c>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
     </row>
     <row r="15" spans="1:17" ht="13.5" customHeight="1">
       <c r="A15" s="6">
         <v>9</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="18" t="s">
+      <c r="B15" s="56"/>
+      <c r="C15" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="41"/>
       <c r="M15" s="16">
         <v>45505</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+        <v>54</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="41"/>
     </row>
     <row r="16" spans="1:17" ht="13.5" customHeight="1">
       <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="56"/>
+      <c r="C16" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="41"/>
       <c r="M16" s="16">
         <v>45505</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+        <v>54</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="41"/>
     </row>
     <row r="17" spans="1:17" ht="13.5" customHeight="1">
       <c r="A17" s="6">
         <v>11</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
       <c r="M17" s="16">
         <v>45505</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+        <v>53</v>
+      </c>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
     </row>
     <row r="18" spans="1:17" ht="13.5" customHeight="1">
       <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
       <c r="M18" s="16">
         <v>45505</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+        <v>53</v>
+      </c>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1">
       <c r="A19" s="6">
         <v>13</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
       <c r="M19" s="16">
         <v>45505</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+        <v>53</v>
+      </c>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
         <v>14</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
       <c r="M20" s="16">
         <v>45505</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+        <v>53</v>
+      </c>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>15</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
       <c r="H21" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
@@ -1956,57 +1929,63 @@
         <v>45505</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+        <v>53</v>
+      </c>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="22"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>16</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
+      <c r="B22" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
       <c r="M22" s="16">
         <v>45505</v>
       </c>
       <c r="N22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="O22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
     </row>
     <row r="23" spans="1:17" ht="29" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+      <c r="A23" s="6">
+        <v>17</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
       <c r="H23" s="18" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
@@ -2016,79 +1995,23 @@
         <v>45505</v>
       </c>
       <c r="N23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="O23" s="2"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="46"/>
+      <c r="Q23" s="17"/>
     </row>
     <row r="24" spans="1:17" ht="27" customHeight="1">
-      <c r="A24" s="6">
-        <v>17</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="16">
-        <v>45505</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P24" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q24" s="18"/>
+      <c r="B24" s="4"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:17" ht="29.5" customHeight="1">
-      <c r="A25" s="6">
-        <v>18</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="16">
-        <v>45505</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P25" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q25" s="18"/>
+      <c r="B25" s="4"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:17" ht="11.25" customHeight="1">
       <c r="B26" s="4"/>
@@ -2096,46 +2019,28 @@
     </row>
     <row r="27" spans="1:17" ht="11.25" customHeight="1">
       <c r="B27" s="4"/>
-      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:17" ht="11.25" customHeight="1">
       <c r="B28" s="4"/>
-      <c r="G28" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C9:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="H12:L12"/>
+  <mergeCells count="67">
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2152,31 +2057,41 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C9:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="H12:L12"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C15:G15"/>
     <mergeCell ref="H15:L15"/>
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
     <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="P19:Q19"/>
     <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
